--- a/LOR Project_reviewed.xlsx
+++ b/LOR Project_reviewed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06bb45649193135b/01_AKADEMİK/medical_advicae_letters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\GIT\AURA_REFERENCE_LETTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{2D22B9F7-9ED9-4D0B-8089-75BE9B26F9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94887BD8-FBEA-4C06-926A-038BB7ECF018}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57E4375-5C12-4D41-8365-05B33D2BA7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -1685,7 +1685,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1807,6 +1807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1852,6 +1853,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1867,15 +1889,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1888,20 +1901,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -2314,59 +2313,59 @@
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="76" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="77" t="s">
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="79"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="80"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="80" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82" t="s">
+      <c r="I5" s="82"/>
+      <c r="J5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="84" t="s">
+      <c r="K5" s="84"/>
+      <c r="L5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82" t="s">
+      <c r="M5" s="82"/>
+      <c r="N5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="85"/>
+      <c r="O5" s="86"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="66" t="s">
         <v>7</v>
       </c>
@@ -2884,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -2901,35 +2900,35 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="86"/>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="79"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="87"/>
-      <c r="C5" s="94" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="92" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="88"/>
+      <c r="G5" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="89" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="88"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
@@ -2942,8 +2941,8 @@
       <c r="F6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="101"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
@@ -2952,7 +2951,7 @@
       <c r="C7" s="33">
         <v>943</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="46">
         <v>1.2869999999999999</v>
       </c>
       <c r="E7" s="37">
@@ -3061,35 +3060,35 @@
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="86"/>
-      <c r="C14" s="77" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="79"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="87"/>
-      <c r="C15" s="95" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="92" t="s">
+      <c r="D15" s="100"/>
+      <c r="E15" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="89" t="s">
+      <c r="F15" s="88"/>
+      <c r="G15" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="89" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="42" t="s">
         <v>7</v>
       </c>
@@ -3102,8 +3101,8 @@
       <c r="F16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="101"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="90"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
@@ -3221,47 +3220,47 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="94"/>
+      <c r="C24" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="79"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="80"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="87"/>
-      <c r="C25" s="96" t="s">
+      <c r="B25" s="95"/>
+      <c r="C25" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98" t="s">
+      <c r="D25" s="102"/>
+      <c r="E25" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="96" t="s">
+      <c r="F25" s="92"/>
+      <c r="G25" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="97"/>
-      <c r="I25" s="98" t="s">
+      <c r="H25" s="102"/>
+      <c r="I25" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="J25" s="99"/>
-      <c r="K25" s="89" t="s">
+      <c r="J25" s="92"/>
+      <c r="K25" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="L25" s="100" t="s">
+      <c r="L25" s="89" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="44" t="s">
         <v>7</v>
       </c>
@@ -3286,8 +3285,8 @@
       <c r="J26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="90"/>
-      <c r="L26" s="101"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="90"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
@@ -3435,7 +3434,7 @@
       <c r="H31" s="54">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I31" s="103">
+      <c r="I31" s="71">
         <v>32</v>
       </c>
       <c r="J31" s="56">
@@ -3476,26 +3475,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="K25:K26"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3505,11 +3504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,7 +3516,7 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/LOR Project_reviewed.xlsx
+++ b/LOR Project_reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\GIT\AURA_REFERENCE_LETTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57E4375-5C12-4D41-8365-05B33D2BA7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF08414-E88D-45B4-9F17-8EC450722BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="179">
   <si>
     <t>Gender</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Keen Eye</t>
   </si>
 </sst>
 </file>
@@ -1853,52 +1856,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2900,8 +2903,8 @@
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="94"/>
-      <c r="C4" s="93" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="95" t="s">
         <v>156</v>
       </c>
       <c r="D4" s="78"/>
@@ -2911,24 +2914,24 @@
       <c r="H4" s="80"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="95"/>
-      <c r="C5" s="99" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="87" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="97" t="s">
+      <c r="F5" s="97"/>
+      <c r="G5" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="92" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="96"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
@@ -2941,8 +2944,8 @@
       <c r="F6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
@@ -3060,7 +3063,7 @@
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="94"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="78" t="s">
         <v>12</v>
       </c>
@@ -3071,24 +3074,24 @@
       <c r="H14" s="80"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="100" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="97" t="s">
+      <c r="F15" s="97"/>
+      <c r="G15" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="92" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="96"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="42" t="s">
         <v>7</v>
       </c>
@@ -3101,8 +3104,8 @@
       <c r="F16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="93"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
@@ -3220,8 +3223,8 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="94"/>
-      <c r="C24" s="93" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="95" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="78"/>
@@ -3235,32 +3238,32 @@
       <c r="L24" s="80"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="95"/>
-      <c r="C25" s="101" t="s">
+      <c r="B25" s="88"/>
+      <c r="C25" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="91" t="s">
+      <c r="D25" s="100"/>
+      <c r="E25" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="101" t="s">
+      <c r="F25" s="102"/>
+      <c r="G25" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="91" t="s">
+      <c r="H25" s="100"/>
+      <c r="I25" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="J25" s="92"/>
-      <c r="K25" s="97" t="s">
+      <c r="J25" s="102"/>
+      <c r="K25" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="L25" s="89" t="s">
+      <c r="L25" s="92" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="96"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="44" t="s">
         <v>7</v>
       </c>
@@ -3285,8 +3288,8 @@
       <c r="J26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="98"/>
-      <c r="L26" s="90"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="93"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
@@ -3475,6 +3478,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C24:L24"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
@@ -3486,15 +3498,6 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3508,7 +3511,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,7 +3652,9 @@
         <v>138</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
